--- a/0_pseudo_labels/Reports/config_pseudo_label_pre.xlsx
+++ b/0_pseudo_labels/Reports/config_pseudo_label_pre.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="68">
   <si>
     <t xml:space="preserve">id_test</t>
   </si>
@@ -104,27 +104,36 @@
     <t xml:space="preserve">png</t>
   </si>
   <si>
+    <t xml:space="preserve">MobileNet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">softmax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMSprop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True – para todos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imagenet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DenseNet201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VGG19</t>
+  </si>
+  <si>
     <t xml:space="preserve">VGG16</t>
   </si>
   <si>
-    <t xml:space="preserve">softmax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMSprop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True – para todos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imagenet</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tempo</t>
   </si>
   <si>
@@ -183,6 +192,39 @@
   </si>
   <si>
     <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
   </si>
 </sst>
 </file>
@@ -261,7 +303,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -275,6 +317,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -305,8 +351,8 @@
   </sheetPr>
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -412,12 +458,12 @@
         <v>224.224</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="I2" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="I2" s="4" t="n">
         <v>1E-005</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -450,7 +496,7 @@
       <c r="S2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="3" t="n">
+      <c r="T2" s="4" t="n">
         <v>0.0001</v>
       </c>
       <c r="U2" s="1" t="s">
@@ -464,202 +510,785 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="149.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>224.224</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" s="1" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="149.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>224.224</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" s="1" t="n">
+        <v>0.995</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="149.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>224.224</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" s="1" t="n">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="149.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>224.224</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" s="1" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="149.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>224.224</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" s="1" t="n">
+        <v>0.995</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="149.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>224.224</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" s="1" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="149.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>224.224</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W9" s="1" t="n">
+        <v>0.995</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="149.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>224.224</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W10" s="1" t="n">
+        <v>0.995</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="149.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>224.224</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="4" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W11" s="1" t="n">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="149.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>224.224</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T12" s="4" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W12" s="1" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>224.224</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T13" s="4" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W13" s="1" t="n">
+        <v>0.995</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -677,283 +1306,3035 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1048576"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5"/>
+      <selection pane="topLeft" activeCell="T17" activeCellId="0" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>0.289493024349213</v>
+        <v>0.951304376125336</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.897637784481049</v>
+        <v>0.787401556968689</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.926</v>
+        <v>0.833</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.898</v>
+        <v>0.787</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.904</v>
+        <v>0.784</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.863</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>45604.6787384259</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>45604.6805787037</v>
-      </c>
-      <c r="J2" s="5" t="n">
-        <v>0.00184027777777778</v>
+        <v>0.707</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>45605.3512037037</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>45605.3517013889</v>
+      </c>
+      <c r="J2" s="6" t="n">
+        <v>0.000497685185185185</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>3273</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>1905</v>
+        <v>2567</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>1368</v>
+        <v>706</v>
       </c>
       <c r="O2" s="1" t="n">
         <v>406</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>2311</v>
+        <v>2973</v>
       </c>
       <c r="Q2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>0.344323426485062</v>
+        <v>0.247424080967903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.897637784481049</v>
+        <v>0.921259820461273</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.922</v>
+        <v>0.924</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.898</v>
+        <v>0.921</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.902</v>
+        <v>0.921</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.862</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>45604.6808796296</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>45604.6822685185</v>
-      </c>
-      <c r="J3" s="5" t="n">
-        <v>0.00138888888888889</v>
+        <v>0.896</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>45605.3517939815</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>45605.3525462963</v>
+      </c>
+      <c r="J3" s="6" t="n">
+        <v>0.000752314814814815</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>1368</v>
+        <v>706</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>343</v>
+        <v>504</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>1025</v>
+        <v>202</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>2311</v>
+        <v>2973</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>2654</v>
+        <v>3477</v>
       </c>
       <c r="Q3" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>0.525910019874573</v>
+        <v>1.04677510261536</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.803149580955505</v>
+        <v>0.811023592948914</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.8</v>
+        <v>0.834</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.803</v>
+        <v>0.811</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.798</v>
+        <v>0.797</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.731</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>45604.6824537037</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>45604.6877083333</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>0.00525462962962963</v>
+        <v>0.747</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>45605.3526041667</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>45605.3540972222</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.00149305555555556</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>1025</v>
+        <v>202</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>462</v>
+        <v>114</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>563</v>
+        <v>88</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>2654</v>
+        <v>3477</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>3116</v>
+        <v>3591</v>
       </c>
       <c r="Q4" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1.434978723526</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0.74015748500824</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.721</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>45605.3541435185</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>45605.3556944444</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.00155092592592593</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>3591</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>3633</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1.36628592014313</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.748031497001648</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>45605.3557407407</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>45605.3571875</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.00144675925925926</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>3633</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>3650</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1.73273396492004</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.700787425041199</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0.681</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>45605.3572453704</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>45605.3586805556</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.00143518518518519</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>3650</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>3662</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1.45856583118439</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.724409461021423</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>45605.3587384259</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>45605.3601967593</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.00145833333333333</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>3662</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>3667</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1.48517954349518</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.700787425041199</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0.692</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>45605.3602546296</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>45605.3617013889</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.00144675925925926</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>3667</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>3672</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>1.00781881809235</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0.700787425041199</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0.794</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.701</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>45604.6878703704</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>45604.6926620371</v>
-      </c>
-      <c r="J5" s="5" t="n">
-        <v>0.00479166666666667</v>
-      </c>
-      <c r="K5" s="0" t="n">
+      <c r="B10" s="1" t="n">
+        <v>0.355461984872818</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0.93700784444809</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0.938</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0.937</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0.936</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>45605.3634953704</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>45605.364375</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.00087962962962963</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>3273</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>2458</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>815</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>2864</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0.312022894620895</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0.944881916046143</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>45605.3644791667</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>45605.3651851852</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.000706018518518518</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>815</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>2864</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>3229</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0.571548283100128</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0.921259820461273</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>45605.3652546296</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>45605.3666550926</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.00140046296296296</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>3229</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>3462</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0.466043204069138</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0.921259820461273</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0.894</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>45605.366712963</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>45605.3686458333</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.00193287037037037</v>
+      </c>
+      <c r="K13" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="L5" s="0" t="n">
-        <v>563</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>147</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>416</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>3116</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>3263</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="L13" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>3462</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>3558</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>0.592165529727936</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0.921259820461273</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0.894</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>45605.3687037037</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>45605.3704282407</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.00172453703703704</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>3558</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>3592</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0.380131483078003</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0.929133832454681</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0.932</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>45605.3704976852</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>45605.372650463</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.00215277777777778</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>3592</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>3614</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>0.469401568174362</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0.93700784444809</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0.939</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0.937</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0.937</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>45605.3727083333</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>45605.3748032407</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.00209490740740741</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>3614</v>
+      </c>
+      <c r="P16" s="1" t="n">
+        <v>3637</v>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>0.574627876281738</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0.881889760494232</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>0.843</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>45605.3748726852</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>45605.3765972222</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>0.00172453703703704</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <v>3637</v>
+      </c>
+      <c r="P17" s="1" t="n">
+        <v>3645</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>0.50743305683136</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0.93700784444809</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0.939</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0.937</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>0.935</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>45605.3766666667</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>45605.3783101852</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0.00164351851851852</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O18" s="1" t="n">
+        <v>3645</v>
+      </c>
+      <c r="P18" s="1" t="n">
+        <v>3656</v>
+      </c>
+      <c r="Q18" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>0.634056270122528</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0.881889760494232</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>45605.3783680556</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>45605.3797569444</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.00138888888888889</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>3656</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>3660</v>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>0.40899470448494</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>0.929133832454681</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0.932</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>45605.3798148148</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>45605.3814236111</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>0.0016087962962963</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>3660</v>
+      </c>
+      <c r="P20" s="1" t="n">
+        <v>3663</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>0.491679340600967</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0.952755928039551</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>0.937</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>45605.3814930556</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>45605.3845486111</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>0.00305555555555556</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>3663</v>
+      </c>
+      <c r="P21" s="1" t="n">
+        <v>3670</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>0.441407263278961</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>0.960629940032959</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>0.948</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>45605.3846180556</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>45605.3882523148</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.00363425925925926</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>3670</v>
+      </c>
+      <c r="P22" s="1" t="n">
+        <v>3673</v>
+      </c>
+      <c r="Q22" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>0.596737444400787</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>0.93700784444809</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>0.942</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>0.937</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0.937</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>45605.3883217593</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>45605.3907523148</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>0.00243055555555556</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O23" s="1" t="n">
+        <v>3673</v>
+      </c>
+      <c r="P23" s="1" t="n">
+        <v>3675</v>
+      </c>
+      <c r="Q23" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>0.46048977971077</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0.93700784444809</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>0.937</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>0.936</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>45605.3908217593</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>45605.3934722222</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.00265046296296296</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O24" s="1" t="n">
+        <v>3675</v>
+      </c>
+      <c r="P24" s="1" t="n">
+        <v>3676</v>
+      </c>
+      <c r="Q24" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>0.413851112127304</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>0.944881916046143</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>45605.3953587963</v>
+      </c>
+      <c r="I25" s="5" t="n">
+        <v>45605.3961574074</v>
+      </c>
+      <c r="J25" s="6" t="n">
+        <v>0.000798611111111111</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <v>3273</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <v>2449</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="P25" s="1" t="n">
+        <v>2855</v>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>0.964376270771027</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>0.818897664546967</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>0.858</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <v>45605.3962731482</v>
+      </c>
+      <c r="I26" s="5" t="n">
+        <v>45605.396724537</v>
+      </c>
+      <c r="J26" s="6" t="n">
+        <v>0.000451388888888889</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="O26" s="1" t="n">
+        <v>2855</v>
+      </c>
+      <c r="P26" s="1" t="n">
+        <v>3145</v>
+      </c>
+      <c r="Q26" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>0.429644644260407</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>0.929133832454681</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="H27" s="5" t="n">
+        <v>45605.3968171296</v>
+      </c>
+      <c r="I27" s="5" t="n">
+        <v>45605.3991666667</v>
+      </c>
+      <c r="J27" s="6" t="n">
+        <v>0.00234953703703704</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="O27" s="1" t="n">
+        <v>3145</v>
+      </c>
+      <c r="P27" s="1" t="n">
+        <v>3445</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>0.510796785354614</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>0.913385808467865</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>0.884</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <v>45605.3992476852</v>
+      </c>
+      <c r="I28" s="5" t="n">
+        <v>45605.4012847222</v>
+      </c>
+      <c r="J28" s="6" t="n">
+        <v>0.00203703703703704</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="O28" s="1" t="n">
+        <v>3445</v>
+      </c>
+      <c r="P28" s="1" t="n">
+        <v>3535</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>0.490998804569244</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>0.905511796474457</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>0.911</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <v>45605.4013657407</v>
+      </c>
+      <c r="I29" s="5" t="n">
+        <v>45605.4035532407</v>
+      </c>
+      <c r="J29" s="6" t="n">
+        <v>0.0021875</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="O29" s="1" t="n">
+        <v>3535</v>
+      </c>
+      <c r="P29" s="1" t="n">
+        <v>3591</v>
+      </c>
+      <c r="Q29" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>0.600004732608795</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>0.93700784444809</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>0.937</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>0.937</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="H30" s="5" t="n">
+        <v>45605.4036342593</v>
+      </c>
+      <c r="I30" s="5" t="n">
+        <v>45605.4073842593</v>
+      </c>
+      <c r="J30" s="6" t="n">
+        <v>0.00375</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="O30" s="1" t="n">
+        <v>3591</v>
+      </c>
+      <c r="P30" s="1" t="n">
+        <v>3634</v>
+      </c>
+      <c r="Q30" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>0.392707645893097</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>0.929133832454681</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>0.938</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="H31" s="5" t="n">
+        <v>45605.4074652778</v>
+      </c>
+      <c r="I31" s="5" t="n">
+        <v>45605.4092824074</v>
+      </c>
+      <c r="J31" s="6" t="n">
+        <v>0.00181712962962963</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="O31" s="1" t="n">
+        <v>3634</v>
+      </c>
+      <c r="P31" s="1" t="n">
+        <v>3645</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>1.00217580795288</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>0.897637784481049</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <v>45605.4093634259</v>
+      </c>
+      <c r="I32" s="5" t="n">
+        <v>45605.4119791667</v>
+      </c>
+      <c r="J32" s="6" t="n">
+        <v>0.00261574074074074</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O32" s="1" t="n">
+        <v>3645</v>
+      </c>
+      <c r="P32" s="1" t="n">
+        <v>3656</v>
+      </c>
+      <c r="Q32" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>0.667872965335846</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>0.913385808467865</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H33" s="5" t="n">
+        <v>45605.4120717593</v>
+      </c>
+      <c r="I33" s="5" t="n">
+        <v>45605.4139236111</v>
+      </c>
+      <c r="J33" s="6" t="n">
+        <v>0.00185185185185185</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="O33" s="1" t="n">
+        <v>3656</v>
+      </c>
+      <c r="P33" s="1" t="n">
+        <v>3660</v>
+      </c>
+      <c r="Q33" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>0.526428461074829</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>0.929133832454681</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="H34" s="5" t="n">
+        <v>45605.4140162037</v>
+      </c>
+      <c r="I34" s="5" t="n">
+        <v>45605.4162962963</v>
+      </c>
+      <c r="J34" s="6" t="n">
+        <v>0.00228009259259259</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L34" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="O34" s="1" t="n">
+        <v>3660</v>
+      </c>
+      <c r="P34" s="1" t="n">
+        <v>3665</v>
+      </c>
+      <c r="Q34" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>0.559274911880493</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>0.905511796474457</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>0.872</v>
+      </c>
+      <c r="H35" s="5" t="n">
+        <v>45605.4163773148</v>
+      </c>
+      <c r="I35" s="5" t="n">
+        <v>45605.4180902778</v>
+      </c>
+      <c r="J35" s="6" t="n">
+        <v>0.00171296296296296</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L35" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="M35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O35" s="1" t="n">
+        <v>3665</v>
+      </c>
+      <c r="P35" s="1" t="n">
+        <v>3667</v>
+      </c>
+      <c r="Q35" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>0.316243052482605</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>0.93700784444809</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>0.942</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>0.937</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>0.932</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="H36" s="5" t="n">
+        <v>45605.4205208333</v>
+      </c>
+      <c r="I36" s="5" t="n">
+        <v>45605.4243634259</v>
+      </c>
+      <c r="J36" s="6" t="n">
+        <v>0.00384259259259259</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <v>3273</v>
+      </c>
+      <c r="M36" s="1" t="n">
+        <v>2641</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="O36" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="P36" s="1" t="n">
+        <v>3047</v>
+      </c>
+      <c r="Q36" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>0.259692162275314</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>0.944881916046143</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="H37" s="5" t="n">
+        <v>45605.4252314815</v>
+      </c>
+      <c r="I37" s="5" t="n">
+        <v>45605.4275231482</v>
+      </c>
+      <c r="J37" s="6" t="n">
+        <v>0.00229166666666667</v>
+      </c>
+      <c r="K37" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L37" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="M37" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="O37" s="1" t="n">
+        <v>3047</v>
+      </c>
+      <c r="P37" s="1" t="n">
+        <v>3233</v>
+      </c>
+      <c r="Q37" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>0.359447836875916</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>0.929133832454681</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>0.935</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="H38" s="5" t="n">
+        <v>45605.4282523148</v>
+      </c>
+      <c r="I38" s="5" t="n">
+        <v>45605.433912037</v>
+      </c>
+      <c r="J38" s="6" t="n">
+        <v>0.00565972222222222</v>
+      </c>
+      <c r="K38" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L38" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="M38" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="O38" s="1" t="n">
+        <v>3233</v>
+      </c>
+      <c r="P38" s="1" t="n">
+        <v>3414</v>
+      </c>
+      <c r="Q38" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>0.467585891485214</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>0.93700784444809</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>0.942</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>0.937</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>0.932</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="H39" s="5" t="n">
+        <v>45605.4346296296</v>
+      </c>
+      <c r="I39" s="5" t="n">
+        <v>45605.447662037</v>
+      </c>
+      <c r="J39" s="6" t="n">
+        <v>0.0130324074074074</v>
+      </c>
+      <c r="K39" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="L39" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="M39" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="N39" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="O39" s="1" t="n">
+        <v>3414</v>
+      </c>
+      <c r="P39" s="1" t="n">
+        <v>3553</v>
+      </c>
+      <c r="Q39" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>0.433542340993881</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>0.913385808467865</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H40" s="5" t="n">
+        <v>45605.4484143519</v>
+      </c>
+      <c r="I40" s="5" t="n">
+        <v>45605.4577662037</v>
+      </c>
+      <c r="J40" s="6" t="n">
+        <v>0.00935185185185185</v>
+      </c>
+      <c r="K40" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L40" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="M40" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="N40" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="O40" s="1" t="n">
+        <v>3553</v>
+      </c>
+      <c r="P40" s="1" t="n">
+        <v>3604</v>
+      </c>
+      <c r="Q40" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>0.415113568305969</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>0.929133832454681</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>0.933</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="H41" s="5" t="n">
+        <v>45605.4584953704</v>
+      </c>
+      <c r="I41" s="5" t="n">
+        <v>45605.4678703704</v>
+      </c>
+      <c r="J41" s="6" t="n">
+        <v>0.009375</v>
+      </c>
+      <c r="K41" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="L41" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="M41" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="N41" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="O41" s="1" t="n">
+        <v>3604</v>
+      </c>
+      <c r="P41" s="1" t="n">
+        <v>3628</v>
+      </c>
+      <c r="Q41" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>0.437736541032791</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>0.921259820461273</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="H42" s="5" t="n">
+        <v>45605.4686226852</v>
+      </c>
+      <c r="I42" s="5" t="n">
+        <v>45605.474849537</v>
+      </c>
+      <c r="J42" s="6" t="n">
+        <v>0.00622685185185185</v>
+      </c>
+      <c r="K42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L42" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="M42" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="N42" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="O42" s="1" t="n">
+        <v>3628</v>
+      </c>
+      <c r="P42" s="1" t="n">
+        <v>3641</v>
+      </c>
+      <c r="Q42" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>0.44411501288414</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>0.93700784444809</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>0.937</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>0.932</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="H43" s="5" t="n">
+        <v>45605.4756134259</v>
+      </c>
+      <c r="I43" s="5" t="n">
+        <v>45605.4861574074</v>
+      </c>
+      <c r="J43" s="6" t="n">
+        <v>0.0105439814814815</v>
+      </c>
+      <c r="K43" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="L43" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="M43" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N43" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="O43" s="1" t="n">
+        <v>3641</v>
+      </c>
+      <c r="P43" s="1" t="n">
+        <v>3653</v>
+      </c>
+      <c r="Q43" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>0.439570546150208</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>0.929133832454681</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>0.933</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="H44" s="5" t="n">
+        <v>45605.4868981482</v>
+      </c>
+      <c r="I44" s="5" t="n">
+        <v>45605.4938541667</v>
+      </c>
+      <c r="J44" s="6" t="n">
+        <v>0.00695601851851852</v>
+      </c>
+      <c r="K44" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L44" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="M44" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="N44" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="O44" s="1" t="n">
+        <v>3653</v>
+      </c>
+      <c r="P44" s="1" t="n">
+        <v>3661</v>
+      </c>
+      <c r="Q44" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>0.123659797012806</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>0.944881916046143</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>0.946</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H45" s="5" t="n">
+        <v>45605.8922569445</v>
+      </c>
+      <c r="I45" s="5" t="n">
+        <v>45605.895150463</v>
+      </c>
+      <c r="J45" s="6" t="n">
+        <v>0.00289351851851852</v>
+      </c>
+      <c r="K45" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="L45" s="1" t="n">
+        <v>3273</v>
+      </c>
+      <c r="M45" s="1" t="n">
+        <v>1961</v>
+      </c>
+      <c r="N45" s="1" t="n">
+        <v>1312</v>
+      </c>
+      <c r="O45" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="P45" s="1" t="n">
+        <v>2367</v>
+      </c>
+      <c r="Q45" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>0.115426890552044</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>0.976377964019775</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="H46" s="5" t="n">
+        <v>45605.8959837963</v>
+      </c>
+      <c r="I46" s="5" t="n">
+        <v>45605.8976967593</v>
+      </c>
+      <c r="J46" s="6" t="n">
+        <v>0.00171296296296296</v>
+      </c>
+      <c r="K46" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="L46" s="1" t="n">
+        <v>1312</v>
+      </c>
+      <c r="M46" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="N46" s="1" t="n">
+        <v>1169</v>
+      </c>
+      <c r="O46" s="1" t="n">
+        <v>2367</v>
+      </c>
+      <c r="P46" s="1" t="n">
+        <v>2510</v>
+      </c>
+      <c r="Q46" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>0.120575174689293</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>0.976377964019775</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="H47" s="5" t="n">
+        <v>45605.8984027778</v>
+      </c>
+      <c r="I47" s="5" t="n">
+        <v>45605.9044560185</v>
+      </c>
+      <c r="J47" s="6" t="n">
+        <v>0.00605324074074074</v>
+      </c>
+      <c r="K47" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="L47" s="1" t="n">
+        <v>1169</v>
+      </c>
+      <c r="M47" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="N47" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="O47" s="1" t="n">
+        <v>2510</v>
+      </c>
+      <c r="P47" s="1" t="n">
+        <v>3040</v>
+      </c>
+      <c r="Q47" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>0.194444969296455</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>0.952755928039551</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>0.936</v>
+      </c>
+      <c r="H48" s="5" t="n">
+        <v>45605.9051967593</v>
+      </c>
+      <c r="I48" s="5" t="n">
+        <v>45605.9111226852</v>
+      </c>
+      <c r="J48" s="6" t="n">
+        <v>0.00592592592592593</v>
+      </c>
+      <c r="K48" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="L48" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="M48" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="N48" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="O48" s="1" t="n">
+        <v>3040</v>
+      </c>
+      <c r="P48" s="1" t="n">
+        <v>3318</v>
+      </c>
+      <c r="Q48" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>0.241616040468216</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>0.93700784444809</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>0.939</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>0.937</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>0.936</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="H49" s="5" t="n">
+        <v>45605.9118287037</v>
+      </c>
+      <c r="I49" s="5" t="n">
+        <v>45605.9199305556</v>
+      </c>
+      <c r="J49" s="6" t="n">
+        <v>0.00810185185185185</v>
+      </c>
+      <c r="K49" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L49" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="M49" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="N49" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="O49" s="1" t="n">
+        <v>3318</v>
+      </c>
+      <c r="P49" s="1" t="n">
+        <v>3466</v>
+      </c>
+      <c r="Q49" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>0.310519129037857</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>0.913385808467865</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="H50" s="5" t="n">
+        <v>45605.920625</v>
+      </c>
+      <c r="I50" s="5" t="n">
+        <v>45605.9262384259</v>
+      </c>
+      <c r="J50" s="6" t="n">
+        <v>0.00561342592592593</v>
+      </c>
+      <c r="K50" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L50" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="M50" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="N50" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="O50" s="1" t="n">
+        <v>3466</v>
+      </c>
+      <c r="P50" s="1" t="n">
+        <v>3501</v>
+      </c>
+      <c r="Q50" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>0.314421474933624</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>0.913385808467865</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="H51" s="5" t="n">
+        <v>45605.9269560185</v>
+      </c>
+      <c r="I51" s="5" t="n">
+        <v>45605.9357407407</v>
+      </c>
+      <c r="J51" s="6" t="n">
+        <v>0.00878472222222222</v>
+      </c>
+      <c r="K51" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="L51" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="M51" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="N51" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="O51" s="1" t="n">
+        <v>3501</v>
+      </c>
+      <c r="P51" s="1" t="n">
+        <v>3556</v>
+      </c>
+      <c r="Q51" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>0.41446840763092</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>0.897637784481049</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>0.903</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="G52" s="1" t="n">
+        <v>0.862</v>
+      </c>
+      <c r="H52" s="5" t="n">
+        <v>45605.9364814815</v>
+      </c>
+      <c r="I52" s="5" t="n">
+        <v>45605.942962963</v>
+      </c>
+      <c r="J52" s="6" t="n">
+        <v>0.00648148148148148</v>
+      </c>
+      <c r="K52" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L52" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="M52" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N52" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="O52" s="1" t="n">
+        <v>3556</v>
+      </c>
+      <c r="P52" s="1" t="n">
+        <v>3568</v>
+      </c>
+      <c r="Q52" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>0.204100698232651</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>0.944881916046143</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="G53" s="1" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="H53" s="5" t="n">
+        <v>45605.9436805556</v>
+      </c>
+      <c r="I53" s="5" t="n">
+        <v>45605.9497222222</v>
+      </c>
+      <c r="J53" s="6" t="n">
+        <v>0.00604166666666667</v>
+      </c>
+      <c r="K53" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L53" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="M53" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="N53" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="O53" s="1" t="n">
+        <v>3568</v>
+      </c>
+      <c r="P53" s="1" t="n">
+        <v>3594</v>
+      </c>
+      <c r="Q53" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>0.274907737970352</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>0.921259820461273</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="H54" s="5" t="n">
+        <v>45605.950462963</v>
+      </c>
+      <c r="I54" s="5" t="n">
+        <v>45605.9562731481</v>
+      </c>
+      <c r="J54" s="6" t="n">
+        <v>0.00581018518518519</v>
+      </c>
+      <c r="K54" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L54" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="M54" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N54" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="O54" s="1" t="n">
+        <v>3594</v>
+      </c>
+      <c r="P54" s="1" t="n">
+        <v>3600</v>
+      </c>
+      <c r="Q54" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>0.291489660739899</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>0.93700784444809</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>0.937</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>0.936</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="H55" s="5" t="n">
+        <v>45605.9570023148</v>
+      </c>
+      <c r="I55" s="5" t="n">
+        <v>45605.9646643519</v>
+      </c>
+      <c r="J55" s="6" t="n">
+        <v>0.00766203703703704</v>
+      </c>
+      <c r="K55" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L55" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="M55" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N55" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="O55" s="1" t="n">
+        <v>3600</v>
+      </c>
+      <c r="P55" s="1" t="n">
+        <v>3611</v>
+      </c>
+      <c r="Q55" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>0.352950811386108</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>0.952755928039551</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="E56" s="1" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="G56" s="1" t="n">
+        <v>0.936</v>
+      </c>
+      <c r="H56" s="5" t="n">
+        <v>45605.9654050926</v>
+      </c>
+      <c r="I56" s="5" t="n">
+        <v>45605.9744097222</v>
+      </c>
+      <c r="J56" s="6" t="n">
+        <v>0.00900462962962963</v>
+      </c>
+      <c r="K56" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="L56" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="M56" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="N56" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="O56" s="1" t="n">
+        <v>3611</v>
+      </c>
+      <c r="P56" s="1" t="n">
+        <v>3621</v>
+      </c>
+      <c r="Q56" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>0.232075378298759</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0.944881916046143</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H57" s="5" t="n">
+        <v>45605.975162037</v>
+      </c>
+      <c r="I57" s="5" t="n">
+        <v>45605.9828587963</v>
+      </c>
+      <c r="J57" s="6" t="n">
+        <v>0.00769675925925926</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <v>3621</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <v>3633</v>
+      </c>
+      <c r="Q57" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
